--- a/programas/Projects/6_regresionLineal/logcnp.xlsx
+++ b/programas/Projects/6_regresionLineal/logcnp.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J1534"/>
+  <dimension ref="A1:J1607"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -46502,6 +46502,2200 @@
         <v>130.0628247236228</v>
       </c>
     </row>
+    <row r="1535">
+      <c r="A1535" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-16</t>
+        </is>
+      </c>
+      <c r="B1535" t="inlineStr">
+        <is>
+          <t>2022-06-16</t>
+        </is>
+      </c>
+      <c r="C1535" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1535" t="n">
+        <v>27.44000053405762</v>
+      </c>
+      <c r="E1535" t="inlineStr"/>
+      <c r="F1535" t="inlineStr"/>
+      <c r="G1535" t="inlineStr"/>
+      <c r="H1535" t="n">
+        <v>-0.02418208694457202</v>
+      </c>
+      <c r="I1535" t="n">
+        <v>-0.02418208694457202</v>
+      </c>
+      <c r="J1535" t="n">
+        <v>126.9176341878995</v>
+      </c>
+    </row>
+    <row r="1536">
+      <c r="A1536" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-17</t>
+        </is>
+      </c>
+      <c r="B1536" t="inlineStr">
+        <is>
+          <t>2022-06-17</t>
+        </is>
+      </c>
+      <c r="C1536" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1536" t="n">
+        <v>27.39999961853027</v>
+      </c>
+      <c r="E1536" t="inlineStr"/>
+      <c r="F1536" t="inlineStr"/>
+      <c r="G1536" t="inlineStr"/>
+      <c r="H1536" t="n">
+        <v>-0.001457759283848947</v>
+      </c>
+      <c r="I1536" t="n">
+        <v>-0.001457759283848947</v>
+      </c>
+      <c r="J1536" t="n">
+        <v>126.7326188283779</v>
+      </c>
+    </row>
+    <row r="1537">
+      <c r="A1537" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-21</t>
+        </is>
+      </c>
+      <c r="B1537" t="inlineStr">
+        <is>
+          <t>2022-06-21</t>
+        </is>
+      </c>
+      <c r="C1537" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1537" t="n">
+        <v>27.75</v>
+      </c>
+      <c r="E1537" t="inlineStr"/>
+      <c r="F1537" t="inlineStr"/>
+      <c r="G1537" t="inlineStr"/>
+      <c r="H1537" t="n">
+        <v>0.01277373672782911</v>
+      </c>
+      <c r="I1537" t="n">
+        <v>0.01277373672782911</v>
+      </c>
+      <c r="J1537" t="n">
+        <v>128.3514679361199</v>
+      </c>
+    </row>
+    <row r="1538">
+      <c r="A1538" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-22</t>
+        </is>
+      </c>
+      <c r="B1538" t="inlineStr">
+        <is>
+          <t>2022-06-22</t>
+        </is>
+      </c>
+      <c r="C1538" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1538" t="n">
+        <v>27.79999923706055</v>
+      </c>
+      <c r="E1538" t="inlineStr"/>
+      <c r="F1538" t="inlineStr"/>
+      <c r="G1538" t="inlineStr"/>
+      <c r="H1538" t="n">
+        <v>0.001801774308488158</v>
+      </c>
+      <c r="I1538" t="n">
+        <v>0.001801774308488158</v>
+      </c>
+      <c r="J1538" t="n">
+        <v>128.582728313504</v>
+      </c>
+    </row>
+    <row r="1539">
+      <c r="A1539" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="B1539" t="inlineStr">
+        <is>
+          <t>2022-06-23</t>
+        </is>
+      </c>
+      <c r="C1539" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1539" t="n">
+        <v>28.25</v>
+      </c>
+      <c r="E1539" t="inlineStr"/>
+      <c r="F1539" t="inlineStr"/>
+      <c r="G1539" t="inlineStr"/>
+      <c r="H1539" t="n">
+        <v>0.01618707824781351</v>
+      </c>
+      <c r="I1539" t="n">
+        <v>0.01618707824781351</v>
+      </c>
+      <c r="J1539" t="n">
+        <v>130.664106998032</v>
+      </c>
+    </row>
+    <row r="1540">
+      <c r="A1540" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
+      <c r="B1540" t="inlineStr">
+        <is>
+          <t>2022-06-24</t>
+        </is>
+      </c>
+      <c r="C1540" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1540" t="n">
+        <v>28.85000038146973</v>
+      </c>
+      <c r="E1540" t="inlineStr"/>
+      <c r="F1540" t="inlineStr"/>
+      <c r="G1540" t="inlineStr"/>
+      <c r="H1540" t="n">
+        <v>0.02123895155645039</v>
+      </c>
+      <c r="I1540" t="n">
+        <v>0.02123895155645039</v>
+      </c>
+      <c r="J1540" t="n">
+        <v>133.4392756367301</v>
+      </c>
+    </row>
+    <row r="1541">
+      <c r="A1541" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="B1541" t="inlineStr">
+        <is>
+          <t>2022-06-27</t>
+        </is>
+      </c>
+      <c r="C1541" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1541" t="n">
+        <v>28.98999977111816</v>
+      </c>
+      <c r="E1541" t="inlineStr"/>
+      <c r="F1541" t="inlineStr"/>
+      <c r="G1541" t="inlineStr"/>
+      <c r="H1541" t="n">
+        <v>0.004852665088294295</v>
+      </c>
+      <c r="I1541" t="n">
+        <v>0.004852665088294295</v>
+      </c>
+      <c r="J1541" t="n">
+        <v>134.0868117510197</v>
+      </c>
+    </row>
+    <row r="1542">
+      <c r="A1542" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="B1542" t="inlineStr">
+        <is>
+          <t>2022-06-28</t>
+        </is>
+      </c>
+      <c r="C1542" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1542" t="n">
+        <v>29.09000015258789</v>
+      </c>
+      <c r="E1542" t="inlineStr"/>
+      <c r="F1542" t="inlineStr"/>
+      <c r="G1542" t="inlineStr"/>
+      <c r="H1542" t="n">
+        <v>0.003449478518773752</v>
+      </c>
+      <c r="I1542" t="n">
+        <v>0.003449478518773752</v>
+      </c>
+      <c r="J1542" t="n">
+        <v>134.5493413278057</v>
+      </c>
+    </row>
+    <row r="1543">
+      <c r="A1543" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-29</t>
+        </is>
+      </c>
+      <c r="B1543" t="inlineStr">
+        <is>
+          <t>2022-06-29</t>
+        </is>
+      </c>
+      <c r="C1543" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1543" t="n">
+        <v>29.1200008392334</v>
+      </c>
+      <c r="E1543" t="inlineStr"/>
+      <c r="F1543" t="inlineStr"/>
+      <c r="G1543" t="inlineStr"/>
+      <c r="H1543" t="n">
+        <v>0.001031305826336926</v>
+      </c>
+      <c r="I1543" t="n">
+        <v>0.001031305826336926</v>
+      </c>
+      <c r="J1543" t="n">
+        <v>134.6881028474469</v>
+      </c>
+    </row>
+    <row r="1544">
+      <c r="A1544" s="1" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="B1544" t="inlineStr">
+        <is>
+          <t>2022-06-30</t>
+        </is>
+      </c>
+      <c r="C1544" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1544" t="n">
+        <v>29.57999992370605</v>
+      </c>
+      <c r="E1544" t="inlineStr"/>
+      <c r="F1544" t="inlineStr"/>
+      <c r="G1544" t="inlineStr"/>
+      <c r="H1544" t="n">
+        <v>0.01579667140163332</v>
+      </c>
+      <c r="I1544" t="n">
+        <v>0.01579667140163332</v>
+      </c>
+      <c r="J1544" t="n">
+        <v>136.8157265498374</v>
+      </c>
+    </row>
+    <row r="1545">
+      <c r="A1545" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-01</t>
+        </is>
+      </c>
+      <c r="B1545" t="inlineStr">
+        <is>
+          <t>2022-07-01</t>
+        </is>
+      </c>
+      <c r="C1545" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1545" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E1545" t="inlineStr"/>
+      <c r="F1545" t="inlineStr"/>
+      <c r="G1545" t="inlineStr"/>
+      <c r="H1545" t="n">
+        <v>0.0311020986702788</v>
+      </c>
+      <c r="I1545" t="n">
+        <v>0.0311020986702788</v>
+      </c>
+      <c r="J1545" t="n">
+        <v>141.0709827766363</v>
+      </c>
+    </row>
+    <row r="1546">
+      <c r="A1546" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-05</t>
+        </is>
+      </c>
+      <c r="B1546" t="inlineStr">
+        <is>
+          <t>2022-07-05</t>
+        </is>
+      </c>
+      <c r="C1546" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1546" t="n">
+        <v>29.09000015258789</v>
+      </c>
+      <c r="E1546" t="inlineStr"/>
+      <c r="F1546" t="inlineStr"/>
+      <c r="G1546" t="inlineStr"/>
+      <c r="H1546" t="n">
+        <v>-0.04622950319383967</v>
+      </c>
+      <c r="I1546" t="n">
+        <v>-0.04622950319383967</v>
+      </c>
+      <c r="J1546" t="n">
+        <v>134.5493413278057</v>
+      </c>
+    </row>
+    <row r="1547">
+      <c r="A1547" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-06</t>
+        </is>
+      </c>
+      <c r="B1547" t="inlineStr">
+        <is>
+          <t>2022-07-06</t>
+        </is>
+      </c>
+      <c r="C1547" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1547" t="n">
+        <v>29.34000015258789</v>
+      </c>
+      <c r="E1547" t="inlineStr"/>
+      <c r="F1547" t="inlineStr"/>
+      <c r="G1547" t="inlineStr"/>
+      <c r="H1547" t="n">
+        <v>0.008594018518001345</v>
+      </c>
+      <c r="I1547" t="n">
+        <v>0.008594018518001345</v>
+      </c>
+      <c r="J1547" t="n">
+        <v>135.7056608587618</v>
+      </c>
+    </row>
+    <row r="1548">
+      <c r="A1548" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-07</t>
+        </is>
+      </c>
+      <c r="B1548" t="inlineStr">
+        <is>
+          <t>2022-07-07</t>
+        </is>
+      </c>
+      <c r="C1548" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1548" t="n">
+        <v>29.30999946594238</v>
+      </c>
+      <c r="E1548" t="inlineStr"/>
+      <c r="F1548" t="inlineStr"/>
+      <c r="G1548" t="inlineStr"/>
+      <c r="H1548" t="n">
+        <v>-0.001022518285258456</v>
+      </c>
+      <c r="I1548" t="n">
+        <v>-0.001022518285258456</v>
+      </c>
+      <c r="J1548" t="n">
+        <v>135.5668993391206</v>
+      </c>
+    </row>
+    <row r="1549">
+      <c r="A1549" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-08</t>
+        </is>
+      </c>
+      <c r="B1549" t="inlineStr">
+        <is>
+          <t>2022-07-08</t>
+        </is>
+      </c>
+      <c r="C1549" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1549" t="n">
+        <v>29.3700008392334</v>
+      </c>
+      <c r="E1549" t="inlineStr"/>
+      <c r="F1549" t="inlineStr"/>
+      <c r="G1549" t="inlineStr"/>
+      <c r="H1549" t="n">
+        <v>0.002047129798167902</v>
+      </c>
+      <c r="I1549" t="n">
+        <v>0.002047129798167902</v>
+      </c>
+      <c r="J1549" t="n">
+        <v>135.844422378403</v>
+      </c>
+    </row>
+    <row r="1550">
+      <c r="A1550" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-11</t>
+        </is>
+      </c>
+      <c r="B1550" t="inlineStr">
+        <is>
+          <t>2022-07-11</t>
+        </is>
+      </c>
+      <c r="C1550" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1550" t="n">
+        <v>29.53000068664551</v>
+      </c>
+      <c r="E1550" t="inlineStr"/>
+      <c r="F1550" t="inlineStr"/>
+      <c r="G1550" t="inlineStr"/>
+      <c r="H1550" t="n">
+        <v>0.005447730433782549</v>
+      </c>
+      <c r="I1550" t="n">
+        <v>0.005447730433782549</v>
+      </c>
+      <c r="J1550" t="n">
+        <v>136.5844661724534</v>
+      </c>
+    </row>
+    <row r="1551">
+      <c r="A1551" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-12</t>
+        </is>
+      </c>
+      <c r="B1551" t="inlineStr">
+        <is>
+          <t>2022-07-12</t>
+        </is>
+      </c>
+      <c r="C1551" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1551" t="n">
+        <v>29.44000053405762</v>
+      </c>
+      <c r="E1551" t="inlineStr"/>
+      <c r="F1551" t="inlineStr"/>
+      <c r="G1551" t="inlineStr"/>
+      <c r="H1551" t="n">
+        <v>-0.003047753149175936</v>
+      </c>
+      <c r="I1551" t="n">
+        <v>-0.003047753149175936</v>
+      </c>
+      <c r="J1551" t="n">
+        <v>136.1681904355478</v>
+      </c>
+    </row>
+    <row r="1552">
+      <c r="A1552" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="B1552" t="inlineStr">
+        <is>
+          <t>2022-07-13</t>
+        </is>
+      </c>
+      <c r="C1552" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1552" t="n">
+        <v>29.07999992370605</v>
+      </c>
+      <c r="E1552" t="inlineStr"/>
+      <c r="F1552" t="inlineStr"/>
+      <c r="G1552" t="inlineStr"/>
+      <c r="H1552" t="n">
+        <v>-0.01222828137978793</v>
+      </c>
+      <c r="I1552" t="n">
+        <v>-0.01222828137978793</v>
+      </c>
+      <c r="J1552" t="n">
+        <v>134.5030874879253</v>
+      </c>
+    </row>
+    <row r="1553">
+      <c r="A1553" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="B1553" t="inlineStr">
+        <is>
+          <t>2022-07-14</t>
+        </is>
+      </c>
+      <c r="C1553" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1553" t="n">
+        <v>29.1200008392334</v>
+      </c>
+      <c r="E1553" t="inlineStr"/>
+      <c r="F1553" t="inlineStr"/>
+      <c r="G1553" t="inlineStr"/>
+      <c r="H1553" t="n">
+        <v>0.001375547305099367</v>
+      </c>
+      <c r="I1553" t="n">
+        <v>0.001375547305099367</v>
+      </c>
+      <c r="J1553" t="n">
+        <v>134.6881028474469</v>
+      </c>
+    </row>
+    <row r="1554">
+      <c r="A1554" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-15</t>
+        </is>
+      </c>
+      <c r="B1554" t="inlineStr">
+        <is>
+          <t>2022-07-15</t>
+        </is>
+      </c>
+      <c r="C1554" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1554" t="n">
+        <v>29.61000061035156</v>
+      </c>
+      <c r="E1554" t="inlineStr"/>
+      <c r="F1554" t="inlineStr"/>
+      <c r="G1554" t="inlineStr"/>
+      <c r="H1554" t="n">
+        <v>0.01682691473202103</v>
+      </c>
+      <c r="I1554" t="n">
+        <v>0.01682691473202103</v>
+      </c>
+      <c r="J1554" t="n">
+        <v>136.9544880694786</v>
+      </c>
+    </row>
+    <row r="1555">
+      <c r="A1555" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-18</t>
+        </is>
+      </c>
+      <c r="B1555" t="inlineStr">
+        <is>
+          <t>2022-07-18</t>
+        </is>
+      </c>
+      <c r="C1555" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1555" t="n">
+        <v>29.55999946594238</v>
+      </c>
+      <c r="E1555" t="inlineStr"/>
+      <c r="F1555" t="inlineStr"/>
+      <c r="G1555" t="inlineStr"/>
+      <c r="H1555" t="n">
+        <v>-0.001688657324502074</v>
+      </c>
+      <c r="I1555" t="n">
+        <v>-0.001688657324502074</v>
+      </c>
+      <c r="J1555" t="n">
+        <v>136.7232188700766</v>
+      </c>
+    </row>
+    <row r="1556">
+      <c r="A1556" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-19</t>
+        </is>
+      </c>
+      <c r="B1556" t="inlineStr">
+        <is>
+          <t>2022-07-19</t>
+        </is>
+      </c>
+      <c r="C1556" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1556" t="n">
+        <v>29.75</v>
+      </c>
+      <c r="E1556" t="inlineStr"/>
+      <c r="F1556" t="inlineStr"/>
+      <c r="G1556" t="inlineStr"/>
+      <c r="H1556" t="n">
+        <v>0.006427623054476861</v>
+      </c>
+      <c r="I1556" t="n">
+        <v>0.006427623054476861</v>
+      </c>
+      <c r="J1556" t="n">
+        <v>137.6020241837682</v>
+      </c>
+    </row>
+    <row r="1557">
+      <c r="A1557" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-20</t>
+        </is>
+      </c>
+      <c r="B1557" t="inlineStr">
+        <is>
+          <t>2022-07-20</t>
+        </is>
+      </c>
+      <c r="C1557" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1557" t="n">
+        <v>29.3799991607666</v>
+      </c>
+      <c r="E1557" t="inlineStr"/>
+      <c r="F1557" t="inlineStr"/>
+      <c r="G1557" t="inlineStr"/>
+      <c r="H1557" t="n">
+        <v>-0.01243700299944195</v>
+      </c>
+      <c r="I1557" t="n">
+        <v>-0.01243700299944195</v>
+      </c>
+      <c r="J1557" t="n">
+        <v>135.8906673962654</v>
+      </c>
+    </row>
+    <row r="1558">
+      <c r="A1558" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-21</t>
+        </is>
+      </c>
+      <c r="B1558" t="inlineStr">
+        <is>
+          <t>2022-07-21</t>
+        </is>
+      </c>
+      <c r="C1558" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1558" t="n">
+        <v>29.31999969482422</v>
+      </c>
+      <c r="E1558" t="inlineStr"/>
+      <c r="F1558" t="inlineStr"/>
+      <c r="G1558" t="inlineStr"/>
+      <c r="H1558" t="n">
+        <v>-0.002042187462772405</v>
+      </c>
+      <c r="I1558" t="n">
+        <v>-0.002042187462772405</v>
+      </c>
+      <c r="J1558" t="n">
+        <v>135.613153179001</v>
+      </c>
+    </row>
+    <row r="1559">
+      <c r="A1559" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-22</t>
+        </is>
+      </c>
+      <c r="B1559" t="inlineStr">
+        <is>
+          <t>2022-07-22</t>
+        </is>
+      </c>
+      <c r="C1559" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1559" t="n">
+        <v>29.70000076293945</v>
+      </c>
+      <c r="E1559" t="inlineStr"/>
+      <c r="F1559" t="inlineStr"/>
+      <c r="G1559" t="inlineStr"/>
+      <c r="H1559" t="n">
+        <v>0.01296047312655046</v>
+      </c>
+      <c r="I1559" t="n">
+        <v>0.01296047312655046</v>
+      </c>
+      <c r="J1559" t="n">
+        <v>137.3707638063842</v>
+      </c>
+    </row>
+    <row r="1560">
+      <c r="A1560" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-25</t>
+        </is>
+      </c>
+      <c r="B1560" t="inlineStr">
+        <is>
+          <t>2022-07-25</t>
+        </is>
+      </c>
+      <c r="C1560" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1560" t="n">
+        <v>30.10000038146973</v>
+      </c>
+      <c r="E1560" t="inlineStr"/>
+      <c r="F1560" t="inlineStr"/>
+      <c r="G1560" t="inlineStr"/>
+      <c r="H1560" t="n">
+        <v>0.01346800027794637</v>
+      </c>
+      <c r="I1560" t="n">
+        <v>0.01346800027794637</v>
+      </c>
+      <c r="J1560" t="n">
+        <v>139.2208732915103</v>
+      </c>
+    </row>
+    <row r="1561">
+      <c r="A1561" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-26</t>
+        </is>
+      </c>
+      <c r="B1561" t="inlineStr">
+        <is>
+          <t>2022-07-26</t>
+        </is>
+      </c>
+      <c r="C1561" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1561" t="n">
+        <v>30.5</v>
+      </c>
+      <c r="E1561" t="inlineStr"/>
+      <c r="F1561" t="inlineStr"/>
+      <c r="G1561" t="inlineStr"/>
+      <c r="H1561" t="n">
+        <v>0.01328902370302032</v>
+      </c>
+      <c r="I1561" t="n">
+        <v>0.01328902370302032</v>
+      </c>
+      <c r="J1561" t="n">
+        <v>141.0709827766364</v>
+      </c>
+    </row>
+    <row r="1562">
+      <c r="A1562" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-27</t>
+        </is>
+      </c>
+      <c r="B1562" t="inlineStr">
+        <is>
+          <t>2022-07-27</t>
+        </is>
+      </c>
+      <c r="C1562" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1562" t="n">
+        <v>30.54999923706055</v>
+      </c>
+      <c r="E1562" t="inlineStr"/>
+      <c r="F1562" t="inlineStr"/>
+      <c r="G1562" t="inlineStr"/>
+      <c r="H1562" t="n">
+        <v>0.001639319247886739</v>
+      </c>
+      <c r="I1562" t="n">
+        <v>0.001639319247886739</v>
+      </c>
+      <c r="J1562" t="n">
+        <v>141.3022431540204</v>
+      </c>
+    </row>
+    <row r="1563">
+      <c r="A1563" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-28</t>
+        </is>
+      </c>
+      <c r="B1563" t="inlineStr">
+        <is>
+          <t>2022-07-28</t>
+        </is>
+      </c>
+      <c r="C1563" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1563" t="n">
+        <v>31.5</v>
+      </c>
+      <c r="E1563" t="inlineStr"/>
+      <c r="F1563" t="inlineStr"/>
+      <c r="G1563" t="inlineStr"/>
+      <c r="H1563" t="n">
+        <v>0.03109658876151444</v>
+      </c>
+      <c r="I1563" t="n">
+        <v>0.03109658876151444</v>
+      </c>
+      <c r="J1563" t="n">
+        <v>145.6962609004605</v>
+      </c>
+    </row>
+    <row r="1564">
+      <c r="A1564" s="1" t="inlineStr">
+        <is>
+          <t>2022-07-29</t>
+        </is>
+      </c>
+      <c r="B1564" t="inlineStr">
+        <is>
+          <t>2022-07-29</t>
+        </is>
+      </c>
+      <c r="C1564" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1564" t="n">
+        <v>31.69000053405762</v>
+      </c>
+      <c r="E1564" t="inlineStr"/>
+      <c r="F1564" t="n">
+        <v>1</v>
+      </c>
+      <c r="G1564" t="inlineStr"/>
+      <c r="H1564" t="n">
+        <v>0.006031762985956091</v>
+      </c>
+      <c r="I1564" t="n">
+        <v>0.006031762985956091</v>
+      </c>
+      <c r="J1564" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1565">
+      <c r="A1565" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
+      </c>
+      <c r="B1565" t="inlineStr">
+        <is>
+          <t>2022-08-01</t>
+        </is>
+      </c>
+      <c r="C1565" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1565" t="n">
+        <v>31.6299991607666</v>
+      </c>
+      <c r="E1565" t="inlineStr"/>
+      <c r="F1565" t="inlineStr"/>
+      <c r="G1565" t="inlineStr"/>
+      <c r="H1565" t="n">
+        <v>-0.001893385051430663</v>
+      </c>
+      <c r="I1565" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1565" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1566">
+      <c r="A1566" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-02</t>
+        </is>
+      </c>
+      <c r="B1566" t="inlineStr">
+        <is>
+          <t>2022-08-02</t>
+        </is>
+      </c>
+      <c r="C1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1566" t="n">
+        <v>31.70000076293945</v>
+      </c>
+      <c r="E1566" t="inlineStr"/>
+      <c r="F1566" t="inlineStr"/>
+      <c r="G1566" t="inlineStr"/>
+      <c r="H1566" t="n">
+        <v>0.002213139552013743</v>
+      </c>
+      <c r="I1566" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1566" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1567">
+      <c r="A1567" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-03</t>
+        </is>
+      </c>
+      <c r="B1567" t="inlineStr">
+        <is>
+          <t>2022-08-03</t>
+        </is>
+      </c>
+      <c r="C1567" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1567" t="n">
+        <v>31.69000053405762</v>
+      </c>
+      <c r="E1567" t="inlineStr"/>
+      <c r="F1567" t="inlineStr"/>
+      <c r="G1567" t="inlineStr"/>
+      <c r="H1567" t="n">
+        <v>-0.0003154646259039273</v>
+      </c>
+      <c r="I1567" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1567" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1568">
+      <c r="A1568" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="B1568" t="inlineStr">
+        <is>
+          <t>2022-08-04</t>
+        </is>
+      </c>
+      <c r="C1568" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1568" t="n">
+        <v>31.38999938964844</v>
+      </c>
+      <c r="E1568" t="inlineStr"/>
+      <c r="F1568" t="inlineStr"/>
+      <c r="G1568" t="inlineStr"/>
+      <c r="H1568" t="n">
+        <v>-0.00946674469401676</v>
+      </c>
+      <c r="I1568" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1568" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1569">
+      <c r="A1569" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-05</t>
+        </is>
+      </c>
+      <c r="B1569" t="inlineStr">
+        <is>
+          <t>2022-08-05</t>
+        </is>
+      </c>
+      <c r="C1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1569" t="n">
+        <v>31.46999931335449</v>
+      </c>
+      <c r="E1569" t="inlineStr"/>
+      <c r="F1569" t="inlineStr"/>
+      <c r="G1569" t="inlineStr"/>
+      <c r="H1569" t="n">
+        <v>0.002548579970104603</v>
+      </c>
+      <c r="I1569" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1569" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1570">
+      <c r="A1570" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-08</t>
+        </is>
+      </c>
+      <c r="B1570" t="inlineStr">
+        <is>
+          <t>2022-08-08</t>
+        </is>
+      </c>
+      <c r="C1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1570" t="n">
+        <v>31.57999992370605</v>
+      </c>
+      <c r="E1570" t="inlineStr"/>
+      <c r="F1570" t="inlineStr"/>
+      <c r="G1570" t="inlineStr"/>
+      <c r="H1570" t="n">
+        <v>0.003495411908219559</v>
+      </c>
+      <c r="I1570" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1570" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1571">
+      <c r="A1571" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-09</t>
+        </is>
+      </c>
+      <c r="B1571" t="inlineStr">
+        <is>
+          <t>2022-08-09</t>
+        </is>
+      </c>
+      <c r="C1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1571" t="n">
+        <v>32.08000183105469</v>
+      </c>
+      <c r="E1571" t="inlineStr"/>
+      <c r="F1571" t="inlineStr"/>
+      <c r="G1571" t="inlineStr"/>
+      <c r="H1571" t="n">
+        <v>0.01583286600875833</v>
+      </c>
+      <c r="I1571" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1571" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1572">
+      <c r="A1572" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-10</t>
+        </is>
+      </c>
+      <c r="B1572" t="inlineStr">
+        <is>
+          <t>2022-08-10</t>
+        </is>
+      </c>
+      <c r="C1572" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1572" t="n">
+        <v>32.06999969482422</v>
+      </c>
+      <c r="E1572" t="inlineStr"/>
+      <c r="F1572" t="inlineStr"/>
+      <c r="G1572" t="inlineStr"/>
+      <c r="H1572" t="n">
+        <v>-0.0003117872711835279</v>
+      </c>
+      <c r="I1572" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1572" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1573">
+      <c r="A1573" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-11</t>
+        </is>
+      </c>
+      <c r="B1573" t="inlineStr">
+        <is>
+          <t>2022-08-11</t>
+        </is>
+      </c>
+      <c r="C1573" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1573" t="n">
+        <v>31.90999984741211</v>
+      </c>
+      <c r="E1573" t="inlineStr"/>
+      <c r="F1573" t="inlineStr"/>
+      <c r="G1573" t="inlineStr"/>
+      <c r="H1573" t="n">
+        <v>-0.004989081663069994</v>
+      </c>
+      <c r="I1573" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1573" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1574">
+      <c r="A1574" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-12</t>
+        </is>
+      </c>
+      <c r="B1574" t="inlineStr">
+        <is>
+          <t>2022-08-12</t>
+        </is>
+      </c>
+      <c r="C1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1574" t="n">
+        <v>32.5</v>
+      </c>
+      <c r="E1574" t="inlineStr"/>
+      <c r="F1574" t="inlineStr"/>
+      <c r="G1574" t="inlineStr"/>
+      <c r="H1574" t="n">
+        <v>0.01848950659383153</v>
+      </c>
+      <c r="I1574" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1574" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1575">
+      <c r="A1575" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-15</t>
+        </is>
+      </c>
+      <c r="B1575" t="inlineStr">
+        <is>
+          <t>2022-08-15</t>
+        </is>
+      </c>
+      <c r="C1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1575" t="n">
+        <v>32.68999862670898</v>
+      </c>
+      <c r="E1575" t="inlineStr"/>
+      <c r="F1575" t="inlineStr"/>
+      <c r="G1575" t="inlineStr"/>
+      <c r="H1575" t="n">
+        <v>0.005846111591045755</v>
+      </c>
+      <c r="I1575" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1575" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1576">
+      <c r="A1576" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-16</t>
+        </is>
+      </c>
+      <c r="B1576" t="inlineStr">
+        <is>
+          <t>2022-08-16</t>
+        </is>
+      </c>
+      <c r="C1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1576" t="n">
+        <v>32.83000183105469</v>
+      </c>
+      <c r="E1576" t="inlineStr"/>
+      <c r="F1576" t="inlineStr"/>
+      <c r="G1576" t="inlineStr"/>
+      <c r="H1576" t="n">
+        <v>0.004282753448368704</v>
+      </c>
+      <c r="I1576" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1576" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1577">
+      <c r="A1577" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-17</t>
+        </is>
+      </c>
+      <c r="B1577" t="inlineStr">
+        <is>
+          <t>2022-08-17</t>
+        </is>
+      </c>
+      <c r="C1577" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1577" t="n">
+        <v>32.5099983215332</v>
+      </c>
+      <c r="E1577" t="inlineStr"/>
+      <c r="F1577" t="inlineStr"/>
+      <c r="G1577" t="inlineStr"/>
+      <c r="H1577" t="n">
+        <v>-0.009747288811259969</v>
+      </c>
+      <c r="I1577" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1577" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1578">
+      <c r="A1578" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-18</t>
+        </is>
+      </c>
+      <c r="B1578" t="inlineStr">
+        <is>
+          <t>2022-08-18</t>
+        </is>
+      </c>
+      <c r="C1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1578" t="n">
+        <v>32.59000015258789</v>
+      </c>
+      <c r="E1578" t="inlineStr"/>
+      <c r="F1578" t="inlineStr"/>
+      <c r="G1578" t="inlineStr"/>
+      <c r="H1578" t="n">
+        <v>0.00246083774792738</v>
+      </c>
+      <c r="I1578" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1578" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1579">
+      <c r="A1579" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-19</t>
+        </is>
+      </c>
+      <c r="B1579" t="inlineStr">
+        <is>
+          <t>2022-08-19</t>
+        </is>
+      </c>
+      <c r="C1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1579" t="n">
+        <v>32.65000152587891</v>
+      </c>
+      <c r="E1579" t="inlineStr"/>
+      <c r="F1579" t="inlineStr"/>
+      <c r="G1579" t="inlineStr"/>
+      <c r="H1579" t="n">
+        <v>0.001841097668305869</v>
+      </c>
+      <c r="I1579" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1579" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1580">
+      <c r="A1580" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-22</t>
+        </is>
+      </c>
+      <c r="B1580" t="inlineStr">
+        <is>
+          <t>2022-08-22</t>
+        </is>
+      </c>
+      <c r="C1580" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1580" t="n">
+        <v>32.02999877929688</v>
+      </c>
+      <c r="E1580" t="inlineStr"/>
+      <c r="F1580" t="inlineStr"/>
+      <c r="G1580" t="inlineStr"/>
+      <c r="H1580" t="n">
+        <v>-0.01898936347952718</v>
+      </c>
+      <c r="I1580" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1580" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1581">
+      <c r="A1581" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-23</t>
+        </is>
+      </c>
+      <c r="B1581" t="inlineStr">
+        <is>
+          <t>2022-08-23</t>
+        </is>
+      </c>
+      <c r="C1581" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1581" t="n">
+        <v>31.90999984741211</v>
+      </c>
+      <c r="E1581" t="inlineStr"/>
+      <c r="F1581" t="inlineStr"/>
+      <c r="G1581" t="inlineStr"/>
+      <c r="H1581" t="n">
+        <v>-0.0037464544632555</v>
+      </c>
+      <c r="I1581" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1581" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1582">
+      <c r="A1582" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="B1582" t="inlineStr">
+        <is>
+          <t>2022-08-24</t>
+        </is>
+      </c>
+      <c r="C1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1582" t="n">
+        <v>32.27000045776367</v>
+      </c>
+      <c r="E1582" t="inlineStr"/>
+      <c r="F1582" t="inlineStr"/>
+      <c r="G1582" t="inlineStr"/>
+      <c r="H1582" t="n">
+        <v>0.01128174904647516</v>
+      </c>
+      <c r="I1582" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1582" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1583">
+      <c r="A1583" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-25</t>
+        </is>
+      </c>
+      <c r="B1583" t="inlineStr">
+        <is>
+          <t>2022-08-25</t>
+        </is>
+      </c>
+      <c r="C1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1583" t="n">
+        <v>32.36999893188477</v>
+      </c>
+      <c r="E1583" t="inlineStr"/>
+      <c r="F1583" t="inlineStr"/>
+      <c r="G1583" t="inlineStr"/>
+      <c r="H1583" t="n">
+        <v>0.003098806095524376</v>
+      </c>
+      <c r="I1583" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1583" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1584">
+      <c r="A1584" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-26</t>
+        </is>
+      </c>
+      <c r="B1584" t="inlineStr">
+        <is>
+          <t>2022-08-26</t>
+        </is>
+      </c>
+      <c r="C1584" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1584" t="n">
+        <v>31.75</v>
+      </c>
+      <c r="E1584" t="inlineStr"/>
+      <c r="F1584" t="inlineStr"/>
+      <c r="G1584" t="inlineStr"/>
+      <c r="H1584" t="n">
+        <v>-0.0191535048607635</v>
+      </c>
+      <c r="I1584" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1584" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1585">
+      <c r="A1585" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
+        </is>
+      </c>
+      <c r="B1585" t="inlineStr">
+        <is>
+          <t>2022-08-29</t>
+        </is>
+      </c>
+      <c r="C1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1585" t="n">
+        <v>32.09000015258789</v>
+      </c>
+      <c r="E1585" t="inlineStr"/>
+      <c r="F1585" t="inlineStr"/>
+      <c r="G1585" t="inlineStr"/>
+      <c r="H1585" t="n">
+        <v>0.01070866622324074</v>
+      </c>
+      <c r="I1585" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1585" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1586">
+      <c r="A1586" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-30</t>
+        </is>
+      </c>
+      <c r="B1586" t="inlineStr">
+        <is>
+          <t>2022-08-30</t>
+        </is>
+      </c>
+      <c r="C1586" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1586" t="n">
+        <v>31.64999961853027</v>
+      </c>
+      <c r="E1586" t="inlineStr"/>
+      <c r="F1586" t="inlineStr"/>
+      <c r="G1586" t="inlineStr"/>
+      <c r="H1586" t="n">
+        <v>-0.01371145316190137</v>
+      </c>
+      <c r="I1586" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1586" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1587">
+      <c r="A1587" s="1" t="inlineStr">
+        <is>
+          <t>2022-08-31</t>
+        </is>
+      </c>
+      <c r="B1587" t="inlineStr">
+        <is>
+          <t>2022-08-31</t>
+        </is>
+      </c>
+      <c r="C1587" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1587" t="n">
+        <v>31.53000068664551</v>
+      </c>
+      <c r="E1587" t="inlineStr"/>
+      <c r="F1587" t="inlineStr"/>
+      <c r="G1587" t="inlineStr"/>
+      <c r="H1587" t="n">
+        <v>-0.003791435492293327</v>
+      </c>
+      <c r="I1587" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1587" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1588">
+      <c r="A1588" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-01</t>
+        </is>
+      </c>
+      <c r="B1588" t="inlineStr">
+        <is>
+          <t>2022-09-01</t>
+        </is>
+      </c>
+      <c r="C1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1588" t="n">
+        <v>31.95000076293945</v>
+      </c>
+      <c r="E1588" t="inlineStr"/>
+      <c r="F1588" t="inlineStr"/>
+      <c r="G1588" t="inlineStr"/>
+      <c r="H1588" t="n">
+        <v>0.01332064913248909</v>
+      </c>
+      <c r="I1588" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1588" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1589">
+      <c r="A1589" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-02</t>
+        </is>
+      </c>
+      <c r="B1589" t="inlineStr">
+        <is>
+          <t>2022-09-02</t>
+        </is>
+      </c>
+      <c r="C1589" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1589" t="n">
+        <v>31.78000068664551</v>
+      </c>
+      <c r="E1589" t="inlineStr"/>
+      <c r="F1589" t="inlineStr"/>
+      <c r="G1589" t="inlineStr"/>
+      <c r="H1589" t="n">
+        <v>-0.005320816032378217</v>
+      </c>
+      <c r="I1589" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1589" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1590">
+      <c r="A1590" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-06</t>
+        </is>
+      </c>
+      <c r="B1590" t="inlineStr">
+        <is>
+          <t>2022-09-06</t>
+        </is>
+      </c>
+      <c r="C1590" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1590" t="n">
+        <v>31.70000076293945</v>
+      </c>
+      <c r="E1590" t="inlineStr"/>
+      <c r="F1590" t="inlineStr"/>
+      <c r="G1590" t="inlineStr"/>
+      <c r="H1590" t="n">
+        <v>-0.002517304026984246</v>
+      </c>
+      <c r="I1590" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1590" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1591">
+      <c r="A1591" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-07</t>
+        </is>
+      </c>
+      <c r="B1591" t="inlineStr">
+        <is>
+          <t>2022-09-07</t>
+        </is>
+      </c>
+      <c r="C1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1591" t="n">
+        <v>32.66999816894531</v>
+      </c>
+      <c r="E1591" t="inlineStr"/>
+      <c r="F1591" t="inlineStr"/>
+      <c r="G1591" t="inlineStr"/>
+      <c r="H1591" t="n">
+        <v>0.03059928651925725</v>
+      </c>
+      <c r="I1591" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1591" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1592">
+      <c r="A1592" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+      <c r="B1592" t="inlineStr">
+        <is>
+          <t>2022-09-08</t>
+        </is>
+      </c>
+      <c r="C1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1592" t="n">
+        <v>32.70000076293945</v>
+      </c>
+      <c r="E1592" t="inlineStr"/>
+      <c r="F1592" t="inlineStr"/>
+      <c r="G1592" t="inlineStr"/>
+      <c r="H1592" t="n">
+        <v>0.0009183530968992493</v>
+      </c>
+      <c r="I1592" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1592" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1593">
+      <c r="A1593" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-09</t>
+        </is>
+      </c>
+      <c r="B1593" t="inlineStr">
+        <is>
+          <t>2022-09-09</t>
+        </is>
+      </c>
+      <c r="C1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1593" t="n">
+        <v>32.84999847412109</v>
+      </c>
+      <c r="E1593" t="inlineStr"/>
+      <c r="F1593" t="inlineStr"/>
+      <c r="G1593" t="inlineStr"/>
+      <c r="H1593" t="n">
+        <v>0.004587085861833984</v>
+      </c>
+      <c r="I1593" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1593" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1594">
+      <c r="A1594" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-12</t>
+        </is>
+      </c>
+      <c r="B1594" t="inlineStr">
+        <is>
+          <t>2022-09-12</t>
+        </is>
+      </c>
+      <c r="C1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1594" t="n">
+        <v>33.09999847412109</v>
+      </c>
+      <c r="E1594" t="inlineStr"/>
+      <c r="F1594" t="inlineStr"/>
+      <c r="G1594" t="inlineStr"/>
+      <c r="H1594" t="n">
+        <v>0.007610350429603452</v>
+      </c>
+      <c r="I1594" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1594" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1595">
+      <c r="A1595" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+      <c r="B1595" t="inlineStr">
+        <is>
+          <t>2022-09-13</t>
+        </is>
+      </c>
+      <c r="C1595" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1595" t="n">
+        <v>32.34999847412109</v>
+      </c>
+      <c r="E1595" t="inlineStr"/>
+      <c r="F1595" t="inlineStr"/>
+      <c r="G1595" t="inlineStr"/>
+      <c r="H1595" t="n">
+        <v>-0.02265861131644398</v>
+      </c>
+      <c r="I1595" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1595" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1596">
+      <c r="A1596" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-14</t>
+        </is>
+      </c>
+      <c r="B1596" t="inlineStr">
+        <is>
+          <t>2022-09-14</t>
+        </is>
+      </c>
+      <c r="C1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1596" t="n">
+        <v>32.75</v>
+      </c>
+      <c r="E1596" t="inlineStr"/>
+      <c r="F1596" t="inlineStr"/>
+      <c r="G1596" t="inlineStr"/>
+      <c r="H1596" t="n">
+        <v>0.01236480818380548</v>
+      </c>
+      <c r="I1596" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1596" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1597">
+      <c r="A1597" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+      <c r="B1597" t="inlineStr">
+        <is>
+          <t>2022-09-15</t>
+        </is>
+      </c>
+      <c r="C1597" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1597" t="n">
+        <v>32.18000030517578</v>
+      </c>
+      <c r="E1597" t="inlineStr"/>
+      <c r="F1597" t="inlineStr"/>
+      <c r="G1597" t="inlineStr"/>
+      <c r="H1597" t="n">
+        <v>-0.01740457083432734</v>
+      </c>
+      <c r="I1597" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1597" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1598">
+      <c r="A1598" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+      <c r="B1598" t="inlineStr">
+        <is>
+          <t>2022-09-16</t>
+        </is>
+      </c>
+      <c r="C1598" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1598" t="n">
+        <v>32.04000091552734</v>
+      </c>
+      <c r="E1598" t="inlineStr"/>
+      <c r="F1598" t="inlineStr"/>
+      <c r="G1598" t="inlineStr"/>
+      <c r="H1598" t="n">
+        <v>-0.004350509270378056</v>
+      </c>
+      <c r="I1598" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1598" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1599">
+      <c r="A1599" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="B1599" t="inlineStr">
+        <is>
+          <t>2022-09-19</t>
+        </is>
+      </c>
+      <c r="C1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1599" t="n">
+        <v>32.45999908447266</v>
+      </c>
+      <c r="E1599" t="inlineStr"/>
+      <c r="F1599" t="inlineStr"/>
+      <c r="G1599" t="inlineStr"/>
+      <c r="H1599" t="n">
+        <v>0.01310855670861644</v>
+      </c>
+      <c r="I1599" t="n">
+        <v>0</v>
+      </c>
+      <c r="J1599" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1600">
+      <c r="A1600" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="B1600" t="inlineStr">
+        <is>
+          <t>2022-09-20</t>
+        </is>
+      </c>
+      <c r="C1600" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1600" t="n">
+        <v>31.98999977111816</v>
+      </c>
+      <c r="E1600" t="inlineStr"/>
+      <c r="F1600" t="inlineStr"/>
+      <c r="G1600" t="inlineStr"/>
+      <c r="H1600" t="n">
+        <v>-0.01447933846613436</v>
+      </c>
+      <c r="I1600" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1600" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1601">
+      <c r="A1601" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-21</t>
+        </is>
+      </c>
+      <c r="B1601" t="inlineStr">
+        <is>
+          <t>2022-09-21</t>
+        </is>
+      </c>
+      <c r="C1601" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1601" t="n">
+        <v>31.95000076293945</v>
+      </c>
+      <c r="E1601" t="inlineStr"/>
+      <c r="F1601" t="inlineStr"/>
+      <c r="G1601" t="inlineStr"/>
+      <c r="H1601" t="n">
+        <v>-0.001250359751950425</v>
+      </c>
+      <c r="I1601" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1601" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1602">
+      <c r="A1602" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-22</t>
+        </is>
+      </c>
+      <c r="B1602" t="inlineStr">
+        <is>
+          <t>2022-09-22</t>
+        </is>
+      </c>
+      <c r="C1602" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1602" t="n">
+        <v>31.65999984741211</v>
+      </c>
+      <c r="E1602" t="inlineStr"/>
+      <c r="F1602" t="inlineStr"/>
+      <c r="G1602" t="inlineStr"/>
+      <c r="H1602" t="n">
+        <v>-0.009076710754377548</v>
+      </c>
+      <c r="I1602" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1602" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1603">
+      <c r="A1603" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-23</t>
+        </is>
+      </c>
+      <c r="B1603" t="inlineStr">
+        <is>
+          <t>2022-09-23</t>
+        </is>
+      </c>
+      <c r="C1603" t="n">
+        <v>0</v>
+      </c>
+      <c r="D1603" t="n">
+        <v>31.55999946594238</v>
+      </c>
+      <c r="E1603" t="inlineStr"/>
+      <c r="F1603" t="inlineStr"/>
+      <c r="G1603" t="inlineStr"/>
+      <c r="H1603" t="n">
+        <v>-0.003158571760950246</v>
+      </c>
+      <c r="I1603" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1603" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1604">
+      <c r="A1604" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+      <c r="B1604" t="inlineStr">
+        <is>
+          <t>2022-09-26</t>
+        </is>
+      </c>
+      <c r="C1604" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1604" t="n">
+        <v>30.51000022888184</v>
+      </c>
+      <c r="E1604" t="inlineStr"/>
+      <c r="F1604" t="inlineStr"/>
+      <c r="G1604" t="n">
+        <v>1.824182626637977</v>
+      </c>
+      <c r="H1604" t="n">
+        <v>-0.03326993836592562</v>
+      </c>
+      <c r="I1604" t="n">
+        <v>-0</v>
+      </c>
+      <c r="J1604" t="n">
+        <v>146.5750662141521</v>
+      </c>
+    </row>
+    <row r="1605">
+      <c r="A1605" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+      <c r="B1605" t="inlineStr">
+        <is>
+          <t>2022-09-27</t>
+        </is>
+      </c>
+      <c r="C1605" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1605" t="n">
+        <v>29.88999938964844</v>
+      </c>
+      <c r="E1605" t="inlineStr"/>
+      <c r="F1605" t="inlineStr"/>
+      <c r="G1605" t="inlineStr"/>
+      <c r="H1605" t="n">
+        <v>-0.02032123351629755</v>
+      </c>
+      <c r="I1605" t="n">
+        <v>-0.02032123351629755</v>
+      </c>
+      <c r="J1605" t="n">
+        <v>143.5964800659475</v>
+      </c>
+    </row>
+    <row r="1606">
+      <c r="A1606" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+      <c r="B1606" t="inlineStr">
+        <is>
+          <t>2022-09-28</t>
+        </is>
+      </c>
+      <c r="C1606" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1606" t="n">
+        <v>30.14999961853027</v>
+      </c>
+      <c r="E1606" t="inlineStr"/>
+      <c r="F1606" t="inlineStr"/>
+      <c r="G1606" t="inlineStr"/>
+      <c r="H1606" t="n">
+        <v>0.00869856922686596</v>
+      </c>
+      <c r="I1606" t="n">
+        <v>0.00869856922686596</v>
+      </c>
+      <c r="J1606" t="n">
+        <v>144.8455639885354</v>
+      </c>
+    </row>
+    <row r="1607">
+      <c r="A1607" s="1" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+      <c r="B1607" t="inlineStr">
+        <is>
+          <t>2022-09-29</t>
+        </is>
+      </c>
+      <c r="C1607" t="n">
+        <v>1</v>
+      </c>
+      <c r="D1607" t="n">
+        <v>28.84000015258789</v>
+      </c>
+      <c r="E1607" t="inlineStr"/>
+      <c r="F1607" t="inlineStr"/>
+      <c r="G1607" t="inlineStr"/>
+      <c r="H1607" t="n">
+        <v>-0.04344940240520778</v>
+      </c>
+      <c r="I1607" t="n">
+        <v>-0.04344940240520778</v>
+      </c>
+      <c r="J1607" t="n">
+        <v>138.5521107921883</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
